--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -377,19 +377,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -504,13 +491,13 @@
         <v>Thông tin bổ sung</v>
       </c>
       <c r="O2" t="str">
-        <v>Misssing</v>
+        <v>CustomLabel$CEC_Shipment_Additional_Info</v>
       </c>
       <c r="P2" t="str">
-        <v>Misssing</v>
+        <v>CustomLabel</v>
       </c>
       <c r="Q2" t="str">
-        <v>Misssing</v>
+        <v>Additional Info</v>
       </c>
       <c r="R2" t="str">
         <v>shipmentIdentifier.xlsx</v>
@@ -563,13 +550,13 @@
         <v>Áp dụng</v>
       </c>
       <c r="O3" t="str">
-        <v>Misssing</v>
+        <v>CustomField$CEC_ShippingIdentifier__c.CEC_Applicable__c | CustomLabel$CEC_ShipmentIdentifier_Applicable</v>
       </c>
       <c r="P3" t="str">
-        <v>Misssing</v>
+        <v>CustomField | CustomLabel</v>
       </c>
       <c r="Q3" t="str">
-        <v>Misssing</v>
+        <v>Applicable</v>
       </c>
       <c r="R3" t="str">
         <v>shipmentIdentifier.xlsx</v>
@@ -619,13 +606,13 @@
         <v>Bạn phải chọn một hoặc nhiều định danh giao hàng để tiến hành.</v>
       </c>
       <c r="O4" t="str">
-        <v>Misssing</v>
+        <v>CustomLabel$CEC_Shipment_Non_Applicable_Error</v>
       </c>
       <c r="P4" t="str">
-        <v>Misssing</v>
+        <v>CustomLabel</v>
       </c>
       <c r="Q4" t="str">
-        <v>Misssing</v>
+        <v>You must select one or more shipment identifiers in order to proceed.</v>
       </c>
       <c r="R4" t="str">
         <v>shipmentIdentifier.xlsx</v>
@@ -643,6 +630,19 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -377,6 +377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -390,58 +403,58 @@
         <v>styles</v>
       </c>
       <c r="C1" t="str">
+        <v>zh_CN</v>
+      </c>
+      <c r="D1" t="str">
         <v>fr_CA</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>de</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>el</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>it</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>ko</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>pl</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>pt_BR</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>pt_PT</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>es</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>es_MX</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>th</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>vi</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>package</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>packageName</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>masterInfoLabel</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>file</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>sheet</v>
-      </c>
-      <c r="T1" t="str">
-        <v>zh_CN</v>
       </c>
       <c r="U1" t="str">
         <v>fr</v>
@@ -455,54 +468,57 @@
         <v>FFFFFF</v>
       </c>
       <c r="C2" t="str">
+        <v>附加信息</v>
+      </c>
+      <c r="D2" t="str">
         <v>Information additionnelle</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>Zusätzliche Information</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>Πρόσθετες πληροφορίες</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>Informazioni addizionali</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>추가 정보</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <v>Dodatkowe informacje</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Informação adicional</v>
       </c>
       <c r="J2" t="str">
         <v>Informação adicional</v>
       </c>
       <c r="K2" t="str">
-        <v>Información adicional</v>
+        <v>Informação adicional</v>
       </c>
       <c r="L2" t="str">
         <v>Información adicional</v>
       </c>
       <c r="M2" t="str">
+        <v>Información adicional</v>
+      </c>
+      <c r="N2" t="str">
         <v>ข้อมูลเพิ่มเติม</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <v>Thông tin bổ sung</v>
       </c>
-      <c r="O2" t="str">
-        <v>CustomLabel$CEC_Shipment_Additional_Info</v>
-      </c>
       <c r="P2" t="str">
-        <v>CustomLabel</v>
+        <v>Misssing</v>
       </c>
       <c r="Q2" t="str">
-        <v>Additional Info</v>
+        <v>Misssing</v>
       </c>
       <c r="R2" t="str">
+        <v>Misssing</v>
+      </c>
+      <c r="S2" t="str">
         <v>shipmentIdentifier.xlsx</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <v>Sheet3</v>
       </c>
     </row>
@@ -514,135 +530,125 @@
         <v>FFFFFF</v>
       </c>
       <c r="C3" t="str">
+        <v>适用的</v>
+      </c>
+      <c r="D3" t="str">
         <v>En vigueur</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>Zutreffend</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>Εφαρμόσιμος</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>Applicabile</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>해당되는</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <v>Odpowiedni</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Aplicável</v>
       </c>
       <c r="J3" t="str">
         <v>Aplicável</v>
       </c>
       <c r="K3" t="str">
-        <v>Aplicable</v>
+        <v>Aplicável</v>
       </c>
       <c r="L3" t="str">
         <v>Aplicable</v>
       </c>
       <c r="M3" t="str">
+        <v>Aplicable</v>
+      </c>
+      <c r="N3" t="str">
         <v>ใช้บังคับได้</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>Áp dụng</v>
       </c>
-      <c r="O3" t="str">
-        <v>CustomField$CEC_ShippingIdentifier__c.CEC_Applicable__c | CustomLabel$CEC_ShipmentIdentifier_Applicable</v>
-      </c>
       <c r="P3" t="str">
-        <v>CustomField | CustomLabel</v>
+        <v>Misssing</v>
       </c>
       <c r="Q3" t="str">
-        <v>Applicable</v>
+        <v>Misssing</v>
       </c>
       <c r="R3" t="str">
+        <v>Misssing</v>
+      </c>
+      <c r="S3" t="str">
         <v>shipmentIdentifier.xlsx</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <v>Sheet3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>You must select one or more shipment identifiers in order to proceed.</v>
+        <v>Cases cannot be assigned to this queue or user.</v>
       </c>
       <c r="B4" t="str">
         <v>FFFFFF</v>
       </c>
       <c r="C4" t="str">
-        <v>Vous devez sélectionner un ou plusieurs identificateurs d'expédition afin de continuer.</v>
+        <v>Boon See</v>
       </c>
       <c r="D4" t="str">
-        <v>Sie müssen eine oder mehrere Sendungskennungen auswählen, um fortzufahren.</v>
-      </c>
-      <c r="F4" t="str">
-        <v>È necessario selezionare uno o più identificatori di spedizione per procedere.</v>
+        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Cases können nicht in diese Warteschlange oder Nutzer umgeroutet werden.</v>
       </c>
       <c r="G4" t="str">
-        <v>계속하려면 하나 이상의 발송 식별자를 선택해야합니다.</v>
+        <v>Non è possibile assegnare case a questa coda / utente.</v>
       </c>
       <c r="H4" t="str">
-        <v>Musisz wybrać jedną lub więcej identyfikatorów przesyłek, aby kontynuować.</v>
+        <v>Boon See</v>
       </c>
       <c r="I4" t="str">
-        <v>Você deve selecionar um ou mais identificadores de embarque para prosseguir.</v>
+        <v>Sprawy nie mogą być przypisane do tej kolejki lub użytkownika.</v>
       </c>
       <c r="J4" t="str">
-        <v>Você deve selecionar um ou mais identificadores de embarque para prosseguir.</v>
+        <v>Casos não podem ser atribuídos a essa fila ou usuário.</v>
       </c>
       <c r="K4" t="str">
-        <v>Debe seleccionar uno o más identificadores de envío para continuar.</v>
+        <v>Casos não podem ser atribuídos a esta fila.</v>
       </c>
       <c r="L4" t="str">
-        <v>Debe seleccionar uno o más identificadores de envío para continuar.</v>
+        <v>Casos no pueden ser asignados a esta cola o usuario.</v>
       </c>
       <c r="M4" t="str">
-        <v>คุณต้องเลือกตัวระบุการจัดส่งอย่างน้อยหนึ่งรายการเพื่อดำเนินการต่อ</v>
+        <v>No se pueden asignar casos a esta cola o usuario.</v>
       </c>
       <c r="N4" t="str">
-        <v>Bạn phải chọn một hoặc nhiều định danh giao hàng để tiến hành.</v>
+        <v>Boon See</v>
       </c>
       <c r="O4" t="str">
-        <v>CustomLabel$CEC_Shipment_Non_Applicable_Error</v>
+        <v/>
       </c>
       <c r="P4" t="str">
-        <v>CustomLabel</v>
+        <v>Misssing</v>
       </c>
       <c r="Q4" t="str">
-        <v>You must select one or more shipment identifiers in order to proceed.</v>
+        <v>Misssing</v>
       </c>
       <c r="R4" t="str">
+        <v>Misssing</v>
+      </c>
+      <c r="S4" t="str">
         <v>shipmentIdentifier.xlsx</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <v>Sheet2</v>
       </c>
-      <c r="T4" t="str">
-        <v>您必须选择一个或多个装运标识符才能继续。</v>
-      </c>
       <c r="U4" t="str">
-        <v>Vous devez sélectionner un ou plusieurs identificateurs d'expédition afin de continuer.</v>
+        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -377,19 +377,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -507,13 +494,13 @@
         <v>Thông tin bổ sung</v>
       </c>
       <c r="P2" t="str">
-        <v>Misssing</v>
+        <v>CustomLabel$CEC_Shipment_Additional_Info</v>
       </c>
       <c r="Q2" t="str">
-        <v>Misssing</v>
+        <v>CustomLabel</v>
       </c>
       <c r="R2" t="str">
-        <v>Misssing</v>
+        <v>Additional Info</v>
       </c>
       <c r="S2" t="str">
         <v>shipmentIdentifier.xlsx</v>
@@ -569,13 +556,13 @@
         <v>Áp dụng</v>
       </c>
       <c r="P3" t="str">
-        <v>Misssing</v>
+        <v>CustomField$CEC_ShippingIdentifier__c.CEC_Applicable__c | CustomLabel$CEC_ShipmentIdentifier_Applicable</v>
       </c>
       <c r="Q3" t="str">
-        <v>Misssing</v>
+        <v>CustomField | CustomLabel</v>
       </c>
       <c r="R3" t="str">
-        <v>Misssing</v>
+        <v>Applicable</v>
       </c>
       <c r="S3" t="str">
         <v>shipmentIdentifier.xlsx</v>
@@ -628,13 +615,13 @@
         <v/>
       </c>
       <c r="P4" t="str">
-        <v>Misssing</v>
+        <v>ValidationRule$Case.CEC_RestrictContactCaseOwnership | ValidationRule$Case.CEC_Restrict_SSR_And_Specialized_Users | ValidationRule$Case.CEC_Restrict_UPS_CEC_SRC | CustomLabel$cec_AR_case_Restrict_Owner_ship</v>
       </c>
       <c r="Q4" t="str">
-        <v>Misssing</v>
+        <v>ValidationRule | CustomLabel</v>
       </c>
       <c r="R4" t="str">
-        <v>Misssing</v>
+        <v>Cases cannot be assigned to this queue or user.</v>
       </c>
       <c r="S4" t="str">
         <v>shipmentIdentifier.xlsx</v>
@@ -649,6 +636,19 @@
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>fr_CA</v>
       </c>
       <c r="E1" t="str">
+        <v>fr</v>
+      </c>
+      <c r="F1" t="str">
         <v>de</v>
-      </c>
-      <c r="F1" t="str">
-        <v>el</v>
       </c>
       <c r="G1" t="str">
         <v>it</v>
@@ -442,200 +442,73 @@
       </c>
       <c r="T1" t="str">
         <v>sheet</v>
-      </c>
-      <c r="U1" t="str">
-        <v>fr</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Additional Info</v>
+        <v>Cases cannot be assigned to this queue or user.</v>
       </c>
       <c r="B2" t="str">
         <v>FFFFFF</v>
       </c>
       <c r="C2" t="str">
-        <v>附加信息</v>
+        <v>Boon See</v>
       </c>
       <c r="D2" t="str">
-        <v>Information additionnelle</v>
+        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
       </c>
       <c r="E2" t="str">
-        <v>Zusätzliche Information</v>
+        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
       </c>
       <c r="F2" t="str">
-        <v>Πρόσθετες πληροφορίες</v>
+        <v>Cases können nicht in diese Warteschlange oder Nutzer umgeroutet werden.</v>
       </c>
       <c r="G2" t="str">
-        <v>Informazioni addizionali</v>
+        <v>Non è possibile assegnare case a questa coda / utente.</v>
       </c>
       <c r="H2" t="str">
-        <v>추가 정보</v>
+        <v>Boon See</v>
       </c>
       <c r="I2" t="str">
-        <v>Dodatkowe informacje</v>
+        <v>Sprawy nie mogą być przypisane do tej kolejki lub użytkownika.</v>
       </c>
       <c r="J2" t="str">
-        <v>Informação adicional</v>
+        <v>Casos não podem ser atribuídos a essa fila ou usuário.</v>
       </c>
       <c r="K2" t="str">
-        <v>Informação adicional</v>
+        <v>Casos não podem ser atribuídos a esta fila.</v>
       </c>
       <c r="L2" t="str">
-        <v>Información adicional</v>
+        <v>Casos no pueden ser asignados a esta cola o usuario.</v>
       </c>
       <c r="M2" t="str">
-        <v>Información adicional</v>
+        <v>No se pueden asignar casos a esta cola o usuario.</v>
       </c>
       <c r="N2" t="str">
-        <v>ข้อมูลเพิ่มเติม</v>
+        <v>Boon See</v>
       </c>
       <c r="O2" t="str">
-        <v>Thông tin bổ sung</v>
+        <v/>
       </c>
       <c r="P2" t="str">
-        <v>CustomLabel$CEC_Shipment_Additional_Info</v>
+        <v>ValidationRule$Case.CEC_RestrictContactCaseOwnership | ValidationRule$Case.CEC_Restrict_SSR_And_Specialized_Users | ValidationRule$Case.CEC_Restrict_UPS_CEC_SRC | CustomLabel$cec_AR_case_Restrict_Owner_ship</v>
       </c>
       <c r="Q2" t="str">
-        <v>CustomLabel</v>
+        <v>ValidationRule | CustomLabel</v>
       </c>
       <c r="R2" t="str">
-        <v>Additional Info</v>
+        <v>Cases cannot be assigned to this queue or user.</v>
       </c>
       <c r="S2" t="str">
         <v>shipmentIdentifier.xlsx</v>
       </c>
       <c r="T2" t="str">
-        <v>Sheet3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Applicable</v>
-      </c>
-      <c r="B3" t="str">
-        <v>FFFFFF</v>
-      </c>
-      <c r="C3" t="str">
-        <v>适用的</v>
-      </c>
-      <c r="D3" t="str">
-        <v>En vigueur</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Zutreffend</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Εφαρμόσιμος</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Applicabile</v>
-      </c>
-      <c r="H3" t="str">
-        <v>해당되는</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Odpowiedni</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Aplicável</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Aplicável</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Aplicable</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Aplicable</v>
-      </c>
-      <c r="N3" t="str">
-        <v>ใช้บังคับได้</v>
-      </c>
-      <c r="O3" t="str">
-        <v>Áp dụng</v>
-      </c>
-      <c r="P3" t="str">
-        <v>CustomField$CEC_ShippingIdentifier__c.CEC_Applicable__c | CustomLabel$CEC_ShipmentIdentifier_Applicable</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>CustomField | CustomLabel</v>
-      </c>
-      <c r="R3" t="str">
-        <v>Applicable</v>
-      </c>
-      <c r="S3" t="str">
-        <v>shipmentIdentifier.xlsx</v>
-      </c>
-      <c r="T3" t="str">
-        <v>Sheet3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Cases cannot be assigned to this queue or user.</v>
-      </c>
-      <c r="B4" t="str">
-        <v>FFFFFF</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Boon See</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Cases können nicht in diese Warteschlange oder Nutzer umgeroutet werden.</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Non è possibile assegnare case a questa coda / utente.</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Boon See</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Sprawy nie mogą być przypisane do tej kolejki lub użytkownika.</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Casos não podem ser atribuídos a essa fila ou usuário.</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Casos não podem ser atribuídos a esta fila.</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Casos no pueden ser asignados a esta cola o usuario.</v>
-      </c>
-      <c r="M4" t="str">
-        <v>No se pueden asignar casos a esta cola o usuario.</v>
-      </c>
-      <c r="N4" t="str">
-        <v>Boon See</v>
-      </c>
-      <c r="O4" t="str">
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <v>ValidationRule$Case.CEC_RestrictContactCaseOwnership | ValidationRule$Case.CEC_Restrict_SSR_And_Specialized_Users | ValidationRule$Case.CEC_Restrict_UPS_CEC_SRC | CustomLabel$cec_AR_case_Restrict_Owner_ship</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>ValidationRule | CustomLabel</v>
-      </c>
-      <c r="R4" t="str">
-        <v>Cases cannot be assigned to this queue or user.</v>
-      </c>
-      <c r="S4" t="str">
-        <v>shipmentIdentifier.xlsx</v>
-      </c>
-      <c r="T4" t="str">
         <v>Sheet2</v>
-      </c>
-      <c r="U4" t="str">
-        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -491,7 +491,7 @@
         <v/>
       </c>
       <c r="P2" t="str">
-        <v>ValidationRule$Case.CEC_RestrictContactCaseOwnership | ValidationRule$Case.CEC_Restrict_SSR_And_Specialized_Users | ValidationRule$Case.CEC_Restrict_UPS_CEC_SRC | CustomLabel$cec_AR_case_Restrict_Owner_ship</v>
+        <v>ValidationRule$Case.CEC_RestrictARCaseOwnerShip | ValidationRule$Case.CEC_RestrictContactCaseOwnership | ValidationRule$Case.CEC_Restrict_SSR_And_Specialized_Users | ValidationRule$Case.CEC_Restrict_UPS_CEC_SRC | CustomLabel$cec_AR_case_Restrict_Owner_ship</v>
       </c>
       <c r="Q2" t="str">
         <v>ValidationRule | CustomLabel</v>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -393,13 +393,13 @@
         <v>zh_CN</v>
       </c>
       <c r="D1" t="str">
-        <v>fr_CA</v>
+        <v>fr</v>
       </c>
       <c r="E1" t="str">
-        <v>fr</v>
+        <v>de</v>
       </c>
       <c r="F1" t="str">
-        <v>de</v>
+        <v>el</v>
       </c>
       <c r="G1" t="str">
         <v>it</v>
@@ -446,64 +446,64 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Cases cannot be assigned to this queue or user.</v>
+        <v>Attn</v>
       </c>
       <c r="B2" t="str">
-        <v>FFFFFF</v>
+        <v>FFF2CC</v>
       </c>
       <c r="C2" t="str">
-        <v>Boon See</v>
+        <v>注意</v>
       </c>
       <c r="D2" t="str">
-        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
+        <v>À l'attention de</v>
       </c>
       <c r="E2" t="str">
-        <v>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</v>
+        <v>Beachtung</v>
       </c>
       <c r="F2" t="str">
-        <v>Cases können nicht in diese Warteschlange oder Nutzer umgeroutet werden.</v>
+        <v>Προσοχή</v>
       </c>
       <c r="G2" t="str">
-        <v>Non è possibile assegnare case a questa coda / utente.</v>
+        <v>Attenzione</v>
       </c>
       <c r="H2" t="str">
-        <v>Boon See</v>
+        <v>주목</v>
       </c>
       <c r="I2" t="str">
-        <v>Sprawy nie mogą być przypisane do tej kolejki lub użytkownika.</v>
+        <v>Uwaga</v>
       </c>
       <c r="J2" t="str">
-        <v>Casos não podem ser atribuídos a essa fila ou usuário.</v>
+        <v>Atenção</v>
       </c>
       <c r="K2" t="str">
-        <v>Casos não podem ser atribuídos a esta fila.</v>
+        <v>Atenção</v>
       </c>
       <c r="L2" t="str">
-        <v>Casos no pueden ser asignados a esta cola o usuario.</v>
+        <v>Atención</v>
       </c>
       <c r="M2" t="str">
-        <v>No se pueden asignar casos a esta cola o usuario.</v>
+        <v>Atención</v>
       </c>
       <c r="N2" t="str">
-        <v>Boon See</v>
+        <v>ความสนใจ</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>Liên Hệ</v>
       </c>
       <c r="P2" t="str">
-        <v>ValidationRule$Case.CEC_RestrictARCaseOwnerShip | ValidationRule$Case.CEC_RestrictContactCaseOwnership | ValidationRule$Case.CEC_Restrict_SSR_And_Specialized_Users | ValidationRule$Case.CEC_Restrict_UPS_CEC_SRC | CustomLabel$cec_AR_case_Restrict_Owner_ship</v>
+        <v>CustomLabel$CEC_Attention</v>
       </c>
       <c r="Q2" t="str">
-        <v>ValidationRule | CustomLabel</v>
+        <v>CustomLabel</v>
       </c>
       <c r="R2" t="str">
-        <v>Cases cannot be assigned to this queue or user.</v>
+        <v>Attn</v>
       </c>
       <c r="S2" t="str">
-        <v>shipmentIdentifier.xlsx</v>
+        <v>IVP Contact Creation Translations.xlsx</v>
       </c>
       <c r="T2" t="str">
-        <v>Sheet2</v>
+        <v>Sheet1</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -377,138 +377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>label</v>
-      </c>
-      <c r="B1" t="str">
-        <v>styles</v>
-      </c>
-      <c r="C1" t="str">
-        <v>zh_CN</v>
-      </c>
-      <c r="D1" t="str">
-        <v>fr</v>
-      </c>
-      <c r="E1" t="str">
-        <v>de</v>
-      </c>
-      <c r="F1" t="str">
-        <v>el</v>
-      </c>
-      <c r="G1" t="str">
-        <v>it</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ko</v>
-      </c>
-      <c r="I1" t="str">
-        <v>pl</v>
-      </c>
-      <c r="J1" t="str">
-        <v>pt_BR</v>
-      </c>
-      <c r="K1" t="str">
-        <v>pt_PT</v>
-      </c>
-      <c r="L1" t="str">
-        <v>es</v>
-      </c>
-      <c r="M1" t="str">
-        <v>es_MX</v>
-      </c>
-      <c r="N1" t="str">
-        <v>th</v>
-      </c>
-      <c r="O1" t="str">
-        <v>vi</v>
-      </c>
-      <c r="P1" t="str">
-        <v>package</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>packageName</v>
-      </c>
-      <c r="R1" t="str">
-        <v>masterInfoLabel</v>
-      </c>
-      <c r="S1" t="str">
-        <v>file</v>
-      </c>
-      <c r="T1" t="str">
-        <v>sheet</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Attn</v>
-      </c>
-      <c r="B2" t="str">
-        <v>FFF2CC</v>
-      </c>
-      <c r="C2" t="str">
-        <v>注意</v>
-      </c>
-      <c r="D2" t="str">
-        <v>À l'attention de</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Beachtung</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Προσοχή</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Attenzione</v>
-      </c>
-      <c r="H2" t="str">
-        <v>주목</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Uwaga</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Atenção</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Atenção</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Atención</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Atención</v>
-      </c>
-      <c r="N2" t="str">
-        <v>ความสนใจ</v>
-      </c>
-      <c r="O2" t="str">
-        <v>Liên Hệ</v>
-      </c>
-      <c r="P2" t="str">
-        <v>CustomLabel$CEC_Attention</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>CustomLabel</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Attn</v>
-      </c>
-      <c r="S2" t="str">
-        <v>IVP Contact Creation Translations.xlsx</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Sheet1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -377,13 +377,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>label</v>
+      </c>
+      <c r="B1" t="str">
+        <v>zh_CN</v>
+      </c>
+      <c r="C1" t="str">
+        <v>fr</v>
+      </c>
+      <c r="D1" t="str">
+        <v>de</v>
+      </c>
+      <c r="E1" t="str">
+        <v>el</v>
+      </c>
+      <c r="F1" t="str">
+        <v>it</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ko</v>
+      </c>
+      <c r="H1" t="str">
+        <v>pl</v>
+      </c>
+      <c r="I1" t="str">
+        <v>pt_BR</v>
+      </c>
+      <c r="J1" t="str">
+        <v>pt_PT</v>
+      </c>
+      <c r="K1" t="str">
+        <v>es</v>
+      </c>
+      <c r="L1" t="str">
+        <v>es_MX</v>
+      </c>
+      <c r="M1" t="str">
+        <v>th</v>
+      </c>
+      <c r="N1" t="str">
+        <v>vi</v>
+      </c>
+      <c r="O1" t="str">
+        <v>package</v>
+      </c>
+      <c r="P1" t="str">
+        <v>packageName</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>masterInfoLabel</v>
+      </c>
+      <c r="R1" t="str">
+        <v>file</v>
+      </c>
+      <c r="S1" t="str">
+        <v>sheet</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Delivery</v>
+      </c>
+      <c r="B2" t="str">
+        <v>派送</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Livraison</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Lieferung</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Διανομή</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Consegna</v>
+      </c>
+      <c r="G2" t="str">
+        <v>배달</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Dostawa</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Entrega</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Entrega</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Entrega</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Entrega</v>
+      </c>
+      <c r="M2" t="str">
+        <v>จัดส่ง</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Giao Phát</v>
+      </c>
+      <c r="O2" t="str">
+        <v>CustomLabel$CEC_Delivery</v>
+      </c>
+      <c r="P2" t="str">
+        <v>CustomLabel</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Delivery</v>
+      </c>
+      <c r="R2" t="str">
+        <v>IVP Contact Creation Translations.xlsx</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Sheet1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>IVP Information</v>
+      </c>
+      <c r="B3" t="str">
+        <v>IVP信息</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Données IVP</v>
+      </c>
+      <c r="D3" t="str">
+        <v>IVP-Informationen</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Πληροφορίες IVP</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Informazioni IVP</v>
+      </c>
+      <c r="G3" t="str">
+        <v>IVP 정보</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Informacje IVP.</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Informações de IVP.</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Informações de IVP.</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Información de IVP</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Información de IVP</v>
+      </c>
+      <c r="M3" t="str">
+        <v>ข้อมูล IVP</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Thông Tin IVP</v>
+      </c>
+      <c r="O3" t="str">
+        <v>CustomLabel$CEC_Associated_Contacts</v>
+      </c>
+      <c r="P3" t="str">
+        <v>CustomLabel</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>IVP Information</v>
+      </c>
+      <c r="R3" t="str">
+        <v>IVP Contact Creation Translations.xlsx</v>
+      </c>
+      <c r="S3" t="str">
+        <v>Sheet1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Last Exception</v>
+      </c>
+      <c r="B4" t="str">
+        <v>最后的异常信息</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Dernière exception</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Letzte Ausnahme</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Τελευταία εξαίρεση</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ultima eccezione</v>
+      </c>
+      <c r="G4" t="str">
+        <v>마지막 예외</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Ostatni wyjątek</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Última exceção</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Última exceção</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Última excepción</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Última excepción</v>
+      </c>
+      <c r="M4" t="str">
+        <v>ข้อยกเว้นล่าสุด</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Ngoại lệ cuối cùng</v>
+      </c>
+      <c r="O4" t="str">
+        <v>CustomLabel$CEC_Last_Exception</v>
+      </c>
+      <c r="P4" t="str">
+        <v>CustomLabel</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Last Exception</v>
+      </c>
+      <c r="R4" t="str">
+        <v>IVP Contact Creation Translations.xlsx</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Sheet1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B5" t="str">
+        <v>姓名</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Nom</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Name</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Ονομα</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="G5" t="str">
+        <v>이름</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Nazwa</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Nombre</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Nombre</v>
+      </c>
+      <c r="M5" t="str">
+        <v>ชื่อ</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Tên</v>
+      </c>
+      <c r="O5" t="str">
+        <v>CustomField$CEC_User_Out_of_Office__c.Name__c | CustomLabel$CEC_Name</v>
+      </c>
+      <c r="P5" t="str">
+        <v>CustomField | CustomLabel</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>Name</v>
+      </c>
+      <c r="R5" t="str">
+        <v>IVP Contact Creation Translations.xlsx</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Sheet1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Ship From</v>
+      </c>
+      <c r="B6" t="str">
+        <v>发件人</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Expéditeur</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Liefern von</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Πλοίο</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Nave da</v>
+      </c>
+      <c r="G6" t="str">
+        <v>에서 배송하다</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Statek z</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Vindo de</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Vindo de</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Nave de</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Nave de</v>
+      </c>
+      <c r="M6" t="str">
+        <v>เรือจาก</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Gửi Từ</v>
+      </c>
+      <c r="O6" t="str">
+        <v>CustomLabel$CEC_Ship_From</v>
+      </c>
+      <c r="P6" t="str">
+        <v>CustomLabel</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>Ship From</v>
+      </c>
+      <c r="R6" t="str">
+        <v>IVP Contact Creation Translations.xlsx</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Sheet1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ship To</v>
+      </c>
+      <c r="B7" t="str">
+        <v>收件人</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Destinataire</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Ausliefern</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Αποστολή προς</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Spedire a</v>
+      </c>
+      <c r="G7" t="str">
+        <v>배송지</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Dostawa do</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Enviar para</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Enviar para</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Envie a</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Envie a</v>
+      </c>
+      <c r="M7" t="str">
+        <v>จัดส่ง</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Gửi đến</v>
+      </c>
+      <c r="O7" t="str">
+        <v>CustomLabel$CEC_Ship_To</v>
+      </c>
+      <c r="P7" t="str">
+        <v>CustomLabel</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>Ship To</v>
+      </c>
+      <c r="R7" t="str">
+        <v>IVP Contact Creation Translations.xlsx</v>
+      </c>
+      <c r="S7" t="str">
+        <v>Sheet1</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S7"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/scripts/trans/TranslationValidations/TranslationValidation.xlsx
+++ b/scripts/trans/TranslationValidations/TranslationValidation.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,417 +387,482 @@
         <v>label</v>
       </c>
       <c r="B1" t="str">
+        <v>styles</v>
+      </c>
+      <c r="C1" t="str">
         <v>zh_CN</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>fr</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>de</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>el</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>it</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>ko</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>pl</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>pt_BR</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>pt_PT</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>es</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>es_MX</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>th</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>vi</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>package</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>packageName</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>masterInfoLabel</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>file</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>sheet</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Delivery</v>
+        <v>Attn</v>
       </c>
       <c r="B2" t="str">
-        <v>派送</v>
+        <v>FFF2CC</v>
       </c>
       <c r="C2" t="str">
-        <v>Livraison</v>
+        <v>注意</v>
       </c>
       <c r="D2" t="str">
-        <v>Lieferung</v>
+        <v>À l'attention de</v>
       </c>
       <c r="E2" t="str">
-        <v>Διανομή</v>
+        <v>Beachtung</v>
       </c>
       <c r="F2" t="str">
-        <v>Consegna</v>
+        <v>Προσοχή</v>
       </c>
       <c r="G2" t="str">
-        <v>배달</v>
+        <v>Attenzione</v>
       </c>
       <c r="H2" t="str">
-        <v>Dostawa</v>
+        <v>주목</v>
       </c>
       <c r="I2" t="str">
-        <v>Entrega</v>
+        <v>Uwaga</v>
       </c>
       <c r="J2" t="str">
-        <v>Entrega</v>
+        <v>Atenção</v>
       </c>
       <c r="K2" t="str">
-        <v>Entrega</v>
+        <v>Atenção</v>
       </c>
       <c r="L2" t="str">
-        <v>Entrega</v>
+        <v>Atención</v>
       </c>
       <c r="M2" t="str">
-        <v>จัดส่ง</v>
+        <v>Atención</v>
       </c>
       <c r="N2" t="str">
-        <v>Giao Phát</v>
+        <v>ความสนใจ</v>
       </c>
       <c r="O2" t="str">
-        <v>CustomLabel$CEC_Delivery</v>
+        <v>Liên Hệ</v>
       </c>
       <c r="P2" t="str">
+        <v>CustomLabel$CEC_Attention</v>
+      </c>
+      <c r="Q2" t="str">
         <v>CustomLabel</v>
       </c>
-      <c r="Q2" t="str">
-        <v>Delivery</v>
-      </c>
       <c r="R2" t="str">
+        <v>Attn</v>
+      </c>
+      <c r="S2" t="str">
         <v>IVP Contact Creation Translations.xlsx</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <v>Sheet1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>IVP Information</v>
-      </c>
-      <c r="B3" t="str">
-        <v>IVP信息</v>
+        <v>Delivery</v>
       </c>
       <c r="C3" t="str">
-        <v>Données IVP</v>
+        <v>派送</v>
       </c>
       <c r="D3" t="str">
-        <v>IVP-Informationen</v>
+        <v>Livraison</v>
       </c>
       <c r="E3" t="str">
-        <v>Πληροφορίες IVP</v>
+        <v>Lieferung</v>
       </c>
       <c r="F3" t="str">
-        <v>Informazioni IVP</v>
+        <v>Διανομή</v>
       </c>
       <c r="G3" t="str">
-        <v>IVP 정보</v>
+        <v>Consegna</v>
       </c>
       <c r="H3" t="str">
-        <v>Informacje IVP.</v>
+        <v>배달</v>
       </c>
       <c r="I3" t="str">
-        <v>Informações de IVP.</v>
+        <v>Dostawa</v>
       </c>
       <c r="J3" t="str">
-        <v>Informações de IVP.</v>
+        <v>Entrega</v>
       </c>
       <c r="K3" t="str">
-        <v>Información de IVP</v>
+        <v>Entrega</v>
       </c>
       <c r="L3" t="str">
-        <v>Información de IVP</v>
+        <v>Entrega</v>
       </c>
       <c r="M3" t="str">
-        <v>ข้อมูล IVP</v>
+        <v>Entrega</v>
       </c>
       <c r="N3" t="str">
-        <v>Thông Tin IVP</v>
+        <v>จัดส่ง</v>
       </c>
       <c r="O3" t="str">
-        <v>CustomLabel$CEC_Associated_Contacts</v>
+        <v>Giao Phát</v>
       </c>
       <c r="P3" t="str">
+        <v>CustomLabel$CEC_Delivery</v>
+      </c>
+      <c r="Q3" t="str">
         <v>CustomLabel</v>
       </c>
-      <c r="Q3" t="str">
-        <v>IVP Information</v>
-      </c>
       <c r="R3" t="str">
+        <v>Delivery</v>
+      </c>
+      <c r="S3" t="str">
         <v>IVP Contact Creation Translations.xlsx</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <v>Sheet1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Last Exception</v>
-      </c>
-      <c r="B4" t="str">
-        <v>最后的异常信息</v>
+        <v>IVP Information</v>
       </c>
       <c r="C4" t="str">
-        <v>Dernière exception</v>
+        <v>IVP信息</v>
       </c>
       <c r="D4" t="str">
-        <v>Letzte Ausnahme</v>
+        <v>Données IVP</v>
       </c>
       <c r="E4" t="str">
-        <v>Τελευταία εξαίρεση</v>
+        <v>IVP-Informationen</v>
       </c>
       <c r="F4" t="str">
-        <v>Ultima eccezione</v>
+        <v>Πληροφορίες IVP</v>
       </c>
       <c r="G4" t="str">
-        <v>마지막 예외</v>
+        <v>Informazioni IVP</v>
       </c>
       <c r="H4" t="str">
-        <v>Ostatni wyjątek</v>
+        <v>IVP 정보</v>
       </c>
       <c r="I4" t="str">
-        <v>Última exceção</v>
+        <v>Informacje IVP.</v>
       </c>
       <c r="J4" t="str">
-        <v>Última exceção</v>
+        <v>Informações de IVP.</v>
       </c>
       <c r="K4" t="str">
-        <v>Última excepción</v>
+        <v>Informações de IVP.</v>
       </c>
       <c r="L4" t="str">
-        <v>Última excepción</v>
+        <v>Información de IVP</v>
       </c>
       <c r="M4" t="str">
-        <v>ข้อยกเว้นล่าสุด</v>
+        <v>Información de IVP</v>
       </c>
       <c r="N4" t="str">
-        <v>Ngoại lệ cuối cùng</v>
+        <v>ข้อมูล IVP</v>
       </c>
       <c r="O4" t="str">
-        <v>CustomLabel$CEC_Last_Exception</v>
+        <v>Thông Tin IVP</v>
       </c>
       <c r="P4" t="str">
+        <v>CustomLabel$CEC_Associated_Contacts</v>
+      </c>
+      <c r="Q4" t="str">
         <v>CustomLabel</v>
       </c>
-      <c r="Q4" t="str">
-        <v>Last Exception</v>
-      </c>
       <c r="R4" t="str">
+        <v>IVP Information</v>
+      </c>
+      <c r="S4" t="str">
         <v>IVP Contact Creation Translations.xlsx</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <v>Sheet1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B5" t="str">
-        <v>姓名</v>
+        <v>Last Exception</v>
       </c>
       <c r="C5" t="str">
-        <v>Nom</v>
+        <v>最后的异常信息</v>
       </c>
       <c r="D5" t="str">
-        <v>Name</v>
+        <v>Dernière exception</v>
       </c>
       <c r="E5" t="str">
-        <v>Ονομα</v>
+        <v>Letzte Ausnahme</v>
       </c>
       <c r="F5" t="str">
-        <v>Nome</v>
+        <v>Τελευταία εξαίρεση</v>
       </c>
       <c r="G5" t="str">
-        <v>이름</v>
+        <v>Ultima eccezione</v>
       </c>
       <c r="H5" t="str">
-        <v>Nazwa</v>
+        <v>마지막 예외</v>
       </c>
       <c r="I5" t="str">
-        <v>Nome</v>
+        <v>Ostatni wyjątek</v>
       </c>
       <c r="J5" t="str">
-        <v>Nome</v>
+        <v>Última exceção</v>
       </c>
       <c r="K5" t="str">
-        <v>Nombre</v>
+        <v>Última exceção</v>
       </c>
       <c r="L5" t="str">
-        <v>Nombre</v>
+        <v>Última excepción</v>
       </c>
       <c r="M5" t="str">
-        <v>ชื่อ</v>
+        <v>Última excepción</v>
       </c>
       <c r="N5" t="str">
-        <v>Tên</v>
+        <v>ข้อยกเว้นล่าสุด</v>
       </c>
       <c r="O5" t="str">
-        <v>CustomField$CEC_User_Out_of_Office__c.Name__c | CustomLabel$CEC_Name</v>
+        <v>Ngoại lệ cuối cùng</v>
       </c>
       <c r="P5" t="str">
-        <v>CustomField | CustomLabel</v>
+        <v>CustomLabel$CEC_Last_Exception</v>
       </c>
       <c r="Q5" t="str">
-        <v>Name</v>
+        <v>CustomLabel</v>
       </c>
       <c r="R5" t="str">
+        <v>Last Exception</v>
+      </c>
+      <c r="S5" t="str">
         <v>IVP Contact Creation Translations.xlsx</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <v>Sheet1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Ship From</v>
-      </c>
-      <c r="B6" t="str">
-        <v>发件人</v>
+        <v>Name</v>
       </c>
       <c r="C6" t="str">
-        <v>Expéditeur</v>
+        <v>姓名</v>
       </c>
       <c r="D6" t="str">
-        <v>Liefern von</v>
+        <v>Nom</v>
       </c>
       <c r="E6" t="str">
-        <v>Πλοίο</v>
+        <v>Name</v>
       </c>
       <c r="F6" t="str">
-        <v>Nave da</v>
+        <v>Ονομα</v>
       </c>
       <c r="G6" t="str">
-        <v>에서 배송하다</v>
+        <v>Nome</v>
       </c>
       <c r="H6" t="str">
-        <v>Statek z</v>
+        <v>이름</v>
       </c>
       <c r="I6" t="str">
-        <v>Vindo de</v>
+        <v>Nazwa</v>
       </c>
       <c r="J6" t="str">
-        <v>Vindo de</v>
+        <v>Nome</v>
       </c>
       <c r="K6" t="str">
-        <v>Nave de</v>
+        <v>Nome</v>
       </c>
       <c r="L6" t="str">
-        <v>Nave de</v>
+        <v>Nombre</v>
       </c>
       <c r="M6" t="str">
-        <v>เรือจาก</v>
+        <v>Nombre</v>
       </c>
       <c r="N6" t="str">
-        <v>Gửi Từ</v>
+        <v>ชื่อ</v>
       </c>
       <c r="O6" t="str">
-        <v>CustomLabel$CEC_Ship_From</v>
+        <v>Tên</v>
       </c>
       <c r="P6" t="str">
-        <v>CustomLabel</v>
+        <v>CustomField$CEC_User_Out_of_Office__c.Name__c | CustomLabel$CEC_Name</v>
       </c>
       <c r="Q6" t="str">
-        <v>Ship From</v>
+        <v>CustomField | CustomLabel</v>
       </c>
       <c r="R6" t="str">
+        <v>Name</v>
+      </c>
+      <c r="S6" t="str">
         <v>IVP Contact Creation Translations.xlsx</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <v>Sheet1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>Ship From</v>
+      </c>
+      <c r="C7" t="str">
+        <v>发件人</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Expéditeur</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Liefern von</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Πλοίο</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Nave da</v>
+      </c>
+      <c r="H7" t="str">
+        <v>에서 배송하다</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Statek z</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Vindo de</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Vindo de</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Nave de</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Nave de</v>
+      </c>
+      <c r="N7" t="str">
+        <v>เรือจาก</v>
+      </c>
+      <c r="O7" t="str">
+        <v>Gửi Từ</v>
+      </c>
+      <c r="P7" t="str">
+        <v>CustomLabel$CEC_Ship_From</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>CustomLabel</v>
+      </c>
+      <c r="R7" t="str">
+        <v>Ship From</v>
+      </c>
+      <c r="S7" t="str">
+        <v>IVP Contact Creation Translations.xlsx</v>
+      </c>
+      <c r="T7" t="str">
+        <v>Sheet1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>Ship To</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C8" t="str">
         <v>收件人</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D8" t="str">
         <v>Destinataire</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E8" t="str">
         <v>Ausliefern</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F8" t="str">
         <v>Αποστολή προς</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G8" t="str">
         <v>Spedire a</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H8" t="str">
         <v>배송지</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I8" t="str">
         <v>Dostawa do</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J8" t="str">
         <v>Enviar para</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K8" t="str">
         <v>Enviar para</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L8" t="str">
         <v>Envie a</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M8" t="str">
         <v>Envie a</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N8" t="str">
         <v>จัดส่ง</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O8" t="str">
         <v>Gửi đến</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P8" t="str">
         <v>CustomLabel$CEC_Ship_To</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q8" t="str">
         <v>CustomLabel</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R8" t="str">
         <v>Ship To</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S8" t="str">
         <v>IVP Contact Creation Translations.xlsx</v>
       </c>
-      <c r="S7" t="str">
+      <c r="T8" t="str">
         <v>Sheet1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T8"/>
   </ignoredErrors>
 </worksheet>
 </file>
